--- a/sample_circuitos.xlsx
+++ b/sample_circuitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comando\Documents\Códigos\IEBTauto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comando\AppData\Local\Packages\PythonSoftwareFoundation.Python.3.11_qbz5n2kfra8p0\LocalCache\local-packages\Python311\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FF48AE-694D-45BA-8EBB-FB0F65B9061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60365B1A-96A9-42BD-B451-379D941488A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26985" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>0.95</v>
@@ -527,7 +527,7 @@
         <v>1500</v>
       </c>
       <c r="C3">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="D3">
         <v>0.9</v>
@@ -559,7 +559,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>0.85</v>
@@ -585,7 +585,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Método" prompt="Escolha o Método" sqref="I2:I4" xr:uid="{6359C2A9-142C-4AC5-B05D-D0E07F7EB508}">
       <formula1>"2 condutores carregados – método B1 ( Amperes),3 condutores carregados – método B1 ( Amperes),2 condutores carregados – método B2 ( Amperes),3 condutores carregados – método B2 ( Amperes),2 condutores carregados – método C ( Amperes)  "</formula1>
     </dataValidation>

--- a/sample_circuitos.xlsx
+++ b/sample_circuitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comando\AppData\Local\Packages\PythonSoftwareFoundation.Python.3.11_qbz5n2kfra8p0\LocalCache\local-packages\Python311\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comando\Documents\Códigos\IEBTauto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60365B1A-96A9-42BD-B451-379D941488A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8FB8E-EC34-4CD2-BBC0-74DF198A3F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26985" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Potência</t>
-  </si>
-  <si>
-    <t>tensão</t>
-  </si>
-  <si>
     <t>fator_potencia</t>
   </si>
   <si>
@@ -65,6 +56,15 @@
   </si>
   <si>
     <t>3 condutores carregados – método B1 ( Amperes)</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>potencia</t>
+  </si>
+  <si>
+    <t>tensao</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,45 +457,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="D2">
         <v>0.95</v>
@@ -513,21 +513,21 @@
         <v>0.1</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1500</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="D3">
         <v>0.9</v>
@@ -545,21 +545,21 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="D4">
         <v>0.85</v>
@@ -577,15 +577,15 @@
         <v>0.15</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Método" prompt="Escolha o Método" sqref="I2:I4" xr:uid="{6359C2A9-142C-4AC5-B05D-D0E07F7EB508}">
       <formula1>"2 condutores carregados – método B1 ( Amperes),3 condutores carregados – método B1 ( Amperes),2 condutores carregados – método B2 ( Amperes),3 condutores carregados – método B2 ( Amperes),2 condutores carregados – método C ( Amperes)  "</formula1>
     </dataValidation>
